--- a/ANN_Graphene/visc_output2.xlsx
+++ b/ANN_Graphene/visc_output2.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1585"/>
+  <dimension ref="A1:A2641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A793"/>
@@ -8362,6 +8362,5286 @@
         <v>0.6389778852462769</v>
       </c>
     </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>1.135717153549194</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>0.8953913450241089</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>0.717734694480896</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>0.6032276153564453</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>1.204751253128052</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>0.9820510745048523</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>0.8029009699821472</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>0.6778213977813721</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>1.138980627059937</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>0.9295604228973389</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>0.7767611742019653</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>0.6783442497253418</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>1.18457555770874</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>0.9503787755966187</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>0.7672321200370789</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>0.6441489458084106</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>1.164199233055115</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>0.9360668659210205</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>0.7669130563735962</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>0.6572608947753906</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>1.181540369987488</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>0.948941707611084</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>0.7742138504981995</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>0.6589915156364441</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>1.166332960128784</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>0.9256128072738647</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>0.7426020503044128</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>0.6222278475761414</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>1.185885906219482</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>0.9696742296218872</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>0.8130576610565186</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>0.7104601263999939</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>1.173310518264771</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>0.984518826007843</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>0.8542639017105103</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>0.7699151039123535</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>1.183472156524658</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>0.9513866901397705</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>0.7773241400718689</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>0.6623656153678894</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>1.177660703659058</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>0.9553101658821106</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>0.7946101427078247</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>0.6896452307701111</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>1.173113822937012</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>0.9330613613128662</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>0.7471681833267212</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>0.6232637763023376</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>1.167651891708374</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>0.9269890785217285</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>0.744432806968689</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>0.6242649555206299</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>1.175253868103027</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>0.9477242231369019</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>0.7551687955856323</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>0.6219657063484192</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>1.133193969726562</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>0.897543728351593</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>0.716231107711792</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>0.5982564687728882</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>1.134345531463623</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>0.8944027423858643</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>0.7166617512702942</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>0.6021466255187988</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1.165686130523682</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>0.9245946407318115</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>0.7409366369247437</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>0.6200711131095886</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1.17076051235199</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>0.9369235038757324</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>0.7589187622070312</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>0.6419727802276611</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1.183837890625</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>0.9607576727867126</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>0.7868679165840149</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>0.669458270072937</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1.177553415298462</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>0.9653467535972595</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>0.8144912719726562</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>0.7161761522293091</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1.175872087478638</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>0.94514000415802</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>0.7755006551742554</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>0.6644515991210938</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1.166949272155762</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>0.925889790058136</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>0.7426812648773193</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>0.6220298409461975</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1.125945568084717</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>0.893377423286438</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>0.7168838381767273</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>0.5970627069473267</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1.186263680458069</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>0.9589734673500061</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>0.7797039747238159</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>0.64609694480896</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1.139719724655151</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>0.9215800762176514</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>0.7512674331665039</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>0.6278800964355469</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1.190164685249329</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>0.9493615627288818</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>0.7668988704681396</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>0.6366031765937805</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1.168429851531982</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>0.9286679625511169</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>0.7494462728500366</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>0.624306857585907</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1.192377090454102</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>0.9632341265678406</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>0.7953858375549316</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>0.6788443326950073</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>1.152104377746582</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>0.9253020882606506</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>0.7563518285751343</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>0.6388934850692749</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>1.182674646377563</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>0.9538708925247192</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>0.7906841039657593</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>0.6804625391960144</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>1.116587519645691</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>0.8887249827384949</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>0.7307888865470886</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>0.6302065253257751</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>1.192163228988647</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>0.9654790759086609</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>0.7998920083045959</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>0.6851563453674316</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>1.188304543495178</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>0.955294132232666</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>0.7875360250473022</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>0.6742385029792786</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>1.144416809082031</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>0.92706298828125</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>0.7656072378158569</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>0.6526226401329041</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>1.148474335670471</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>0.9243050813674927</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>0.758018970489502</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>0.6428689360618591</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>1.148876905441284</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>0.9345451593399048</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>0.7519419193267822</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>0.6087089776992798</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>1.134499311447144</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>0.8980144858360291</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>0.7093799114227295</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>0.5737582445144653</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>1.127838611602783</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>0.8935061097145081</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>0.7149338722229004</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>0.5931516289710999</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>1.148296713829041</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>0.9221300482749939</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>0.7534822225570679</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>0.636174201965332</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>1.17832350730896</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>0.9372375011444092</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>0.7545795440673828</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>0.6252138018608093</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1.176806807518005</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>0.9535359144210815</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>0.7763611674308777</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>0.6443192958831787</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1.173806071281433</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>0.9413518309593201</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>0.77618408203125</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>0.6664882898330688</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1.188522338867188</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>0.9568170309066772</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>0.7879539728164673</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>0.6724609136581421</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1.144348859786987</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>0.9208396673202515</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>0.7548950910568237</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>0.6399397850036621</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1.125945568084717</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>0.893377423286438</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>0.7168838381767273</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>0.5970627069473267</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1.186263680458069</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>0.9589734673500061</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>0.7797039747238159</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>0.64609694480896</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1.139719724655151</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>0.9215800762176514</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>0.7512674331665039</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>0.6278800964355469</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>1.190164685249329</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>0.9493615627288818</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>0.7668988704681396</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>0.6366031765937805</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>1.168429851531982</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>0.9286679625511169</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>0.7494462728500366</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>0.624306857585907</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>1.192377090454102</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>0.9632341265678406</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>0.7953858375549316</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>0.6788443326950073</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>1.152104377746582</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>0.9253020882606506</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>0.7563518285751343</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>0.6388934850692749</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1.182674646377563</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>0.9538708925247192</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>0.7906841039657593</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>0.6804625391960144</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1.116587519645691</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>0.8887249827384949</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>0.7307888865470886</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>0.6302065253257751</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1.192163228988647</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>0.9654790759086609</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>0.7998920083045959</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>0.6851563453674316</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>1.188304543495178</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>0.955294132232666</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>0.7875360250473022</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>0.6742385029792786</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>1.144416809082031</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>0.92706298828125</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>0.7656072378158569</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>0.6526226401329041</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>1.148474335670471</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>0.9243050813674927</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>0.758018970489502</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>0.6428689360618591</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>1.148876905441284</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>0.9345451593399048</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>0.7519419193267822</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>0.6087089776992798</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>1.134499311447144</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>0.8980144858360291</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>0.7093799114227295</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>0.5737582445144653</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1.127838611602783</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>0.8935061097145081</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>0.7149338722229004</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>0.5931516289710999</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1.148296713829041</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>0.9221300482749939</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>0.7534822225570679</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>0.636174201965332</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>1.17832350730896</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>0.9372375011444092</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>0.7545795440673828</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>0.6252138018608093</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>1.176806807518005</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>0.9535359144210815</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>0.7763611674308777</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>0.6443192958831787</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>1.173806071281433</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>0.9413518309593201</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>0.77618408203125</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>0.6664882898330688</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>1.188522338867188</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>0.9568170309066772</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>0.7879539728164673</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>0.6724609136581421</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>1.144348859786987</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>0.9208396673202515</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>0.7548950910568237</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>0.6399397850036621</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1.125945568084717</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>0.893377423286438</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>0.7168838381767273</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>0.5970627069473267</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1.186263680458069</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>0.9589734673500061</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>0.7797039747238159</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>0.64609694480896</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1.139719724655151</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>0.9215800762176514</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>0.7512674331665039</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>0.6278800964355469</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1.190164685249329</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>0.9493615627288818</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>0.7668988704681396</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>0.6366031765937805</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>1.168429851531982</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>0.9286679625511169</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>0.7494462728500366</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>0.624306857585907</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1.192377090454102</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>0.9632341265678406</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>0.7953858375549316</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>0.6788443326950073</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1.152104377746582</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>0.9253020882606506</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>0.7563518285751343</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>0.6388934850692749</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1.182674646377563</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>0.9538708925247192</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>0.7906841039657593</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>0.6804625391960144</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1.116587519645691</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>0.8887249827384949</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>0.7307888865470886</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>0.6302065253257751</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1.192163228988647</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>0.9654790759086609</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>0.7998920083045959</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>0.6851563453674316</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1.188304543495178</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>0.955294132232666</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>0.7875360250473022</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>0.6742385029792786</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1.144416809082031</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>0.92706298828125</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>0.7656072378158569</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>0.6526226401329041</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1.148474335670471</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>0.9243050813674927</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>0.758018970489502</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>0.6428689360618591</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1.148876905441284</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>0.9345451593399048</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>0.7519419193267822</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>0.6087089776992798</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1.134499311447144</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>0.8980144858360291</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>0.7093799114227295</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>0.5737582445144653</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1.127838611602783</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>0.8935061097145081</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>0.7149338722229004</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>0.5931516289710999</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1.148296713829041</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>0.9221300482749939</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>0.7534822225570679</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>0.636174201965332</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>1.17832350730896</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>0.9372375011444092</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>0.7545795440673828</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>0.6252138018608093</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>1.176806807518005</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>0.9535359144210815</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>0.7763611674308777</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>0.6443192958831787</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>1.173806071281433</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>0.9413518309593201</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>0.77618408203125</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>0.6664882898330688</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>1.188522338867188</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>0.9568170309066772</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>0.7879539728164673</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>0.6724609136581421</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>1.144348859786987</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>0.9208396673202515</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>0.7548950910568237</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>0.6399397850036621</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1.125945568084717</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>0.893377423286438</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>0.7168838381767273</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>0.5970627069473267</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1.186263680458069</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>0.9589734673500061</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>0.7797039747238159</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>0.64609694480896</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1.139719724655151</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>0.9215800762176514</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>0.7512674331665039</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>0.6278800964355469</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1.190164685249329</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>0.9493615627288818</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>0.7668988704681396</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>0.6366031765937805</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1.168429851531982</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>0.9286679625511169</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>0.7494462728500366</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>0.624306857585907</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1.192377090454102</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>0.9632341265678406</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>0.7953858375549316</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>0.6788443326950073</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1.152104377746582</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>0.9253020882606506</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>0.7563518285751343</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>0.6388934850692749</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1.182674646377563</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>0.9538708925247192</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>0.7906841039657593</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>0.6804625391960144</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1.116587519645691</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>0.8887249827384949</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>0.7307888865470886</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>0.6302065253257751</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1.192163228988647</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>0.9654790759086609</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>0.7998920083045959</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>0.6851563453674316</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1.188304543495178</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>0.955294132232666</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>0.7875360250473022</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>0.6742385029792786</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1.144416809082031</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>0.92706298828125</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>0.7656072378158569</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>0.6526226401329041</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1.148474335670471</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>0.9243050813674927</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>0.758018970489502</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>0.6428689360618591</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1.148876905441284</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>0.9345451593399048</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>0.7519419193267822</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>0.6087089776992798</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1.134499311447144</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>0.8980144858360291</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>0.7093799114227295</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>0.5737582445144653</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1.127838611602783</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>0.8935061097145081</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>0.7149338722229004</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>0.5931516289710999</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1.148296713829041</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>0.9221300482749939</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>0.7534822225570679</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>0.636174201965332</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>1.17832350730896</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>0.9372375011444092</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>0.7545795440673828</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>0.6252138018608093</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1.176806807518005</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>0.9535359144210815</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>0.7763611674308777</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>0.6443192958831787</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1.173806071281433</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>0.9413518309593201</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>0.77618408203125</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>0.6664882898330688</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1.188522338867188</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>0.9568170309066772</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>0.7879539728164673</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>0.6724609136581421</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>1.144348859786987</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>0.9208396673202515</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>0.7548950910568237</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>0.6399397850036621</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>1.122750520706177</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>0.9042768478393555</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>0.7246564626693726</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>0.5919225811958313</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>1.175100922584534</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>0.9629958271980286</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>0.7858178615570068</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>0.6588388085365295</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1.181990742683411</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>0.9589088559150696</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>0.7679774761199951</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>0.6271415948867798</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1.167672276496887</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>0.9557469487190247</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>0.7866709232330322</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>0.6691226959228516</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1.177937626838684</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>0.9584813117980957</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>0.7794540524482727</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>0.6517192721366882</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1.158007860183716</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>0.9450700879096985</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>0.77720707654953</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>0.6592245101928711</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1.164451479911804</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>0.9513850808143616</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>0.7830011248588562</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>0.6643869280815125</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>1.159777760505676</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>0.9433149695396423</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>0.7698249816894531</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>0.6450814008712769</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1.166877865791321</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>0.9463483095169067</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>0.7637693881988525</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>0.6274203062057495</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1.156813502311707</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>0.9441103935241699</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>0.7764798402786255</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>0.6583516597747803</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1.165902853012085</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>0.9484591484069824</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>0.7727642059326172</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>0.6453067660331726</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1.153620481491089</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>0.9449611902236938</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>0.7829494476318359</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>0.6708124279975891</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1.162540316581726</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>0.9497233033180237</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>0.7815861701965332</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>0.6628357172012329</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1.162441730499268</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>0.9445905089378357</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>0.7589408159255981</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>0.6230943202972412</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1.147115468978882</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>0.9246599674224854</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>0.7400883436203003</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>0.6060885190963745</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1.125922799110413</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>0.9066193103790283</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>0.7262552976608276</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>0.5933338403701782</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1.16430938243866</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>0.9514565467834473</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>0.7833805084228516</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>0.6651004552841187</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1.178341388702393</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>0.9615044593811035</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>0.7859323024749756</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>0.6617716550827026</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1.18555736541748</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>0.9683171510696411</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>0.7846537232398987</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>0.6511716246604919</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1.166609048843384</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>0.9478657245635986</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>0.7696380615234375</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>0.6390516757965088</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1.16488790512085</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>0.9489637017250061</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>0.7759361267089844</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>0.6516454219818115</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1.162381410598755</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>0.9497663378715515</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>0.7819287776947021</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>0.663508415222168</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1.129231214523315</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>0.9279363751411438</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>0.7332277297973633</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>0.5597176551818848</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1.133570194244385</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>0.9505308866500854</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>0.7955600023269653</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>0.6698170304298401</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1.106592655181885</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>0.9342882633209229</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>0.7928162813186646</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>0.681185245513916</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1.160689353942871</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>0.9659577012062073</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>0.7884241938591003</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>0.6350120306015015</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1.159909248352051</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>0.9644931554794312</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>0.7902542352676392</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>0.6435298919677734</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1.1744784116745</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>0.9875347018241882</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>0.8083223104476929</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>0.6456480622291565</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1.152656316757202</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>0.9582597613334656</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>0.7696964144706726</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>0.5983690619468689</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1.185826659202576</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1.002386569976807</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>0.829011082649231</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>0.6735076904296875</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1.149083137512207</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>0.9629282355308533</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>0.7924832105636597</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>0.6452215909957886</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1.175146818161011</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>0.9895886182785034</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>0.8107590079307556</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>0.6475489139556885</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1.17173171043396</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>0.9802743792533875</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>0.7990486621856689</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>0.6377878189086914</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>1.149852156639099</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>0.9637047648429871</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>0.7811050415039062</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>0.6118541955947876</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>1.151829242706299</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>0.958812952041626</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>0.7704857587814331</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>0.5983887910842896</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>1.121745586395264</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>0.9349938631057739</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>0.7756586074829102</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>0.6478831768035889</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>1.133967399597168</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>0.9337149858474731</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>0.7525174617767334</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>0.6002318859100342</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1.130789041519165</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>0.9289928674697876</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>0.7351299524307251</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>0.5634473562240601</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1.151380062103271</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>0.9569751620292664</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>0.7681882381439209</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>0.5964876413345337</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1.16038703918457</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>0.9623401165008545</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>0.7838144302368164</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>0.6320977807044983</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1.135754704475403</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>0.9540162682533264</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>0.802104115486145</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>0.6806038618087769</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1.169753909111023</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>0.9796991944313049</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>0.8018194437026978</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>0.645105242729187</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1.16831386089325</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>0.9758987426757812</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>0.7917245626449585</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>0.6262246966362</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1.150506377220154</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>0.9574969410896301</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>0.7689621448516846</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>0.5965041518211365</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1.122177362442017</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>0.9153419137001038</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>0.7268893122673035</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>0.5670440793037415</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1.144685387611389</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>0.9522724151611328</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>0.7885224223136902</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>0.6539928913116455</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1.13804566860199</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>0.9459492564201355</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>0.783012866973877</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>0.6488234996795654</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1.165776491165161</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>0.9669016599655151</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>0.7933542728424072</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>0.6492243409156799</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1.17138147354126</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>0.9694544672966003</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>0.7932940721511841</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>0.6467010378837585</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1.171983957290649</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>0.9695656299591064</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>0.7900892496109009</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>0.6395039558410645</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1.152130961418152</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>0.9476946592330933</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>0.7636767029762268</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>0.6083064079284668</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1.178450584411621</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>0.9759993553161621</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>0.7982065677642822</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>0.6493279933929443</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1.169255614280701</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>0.9682677984237671</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>0.7933001518249512</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>0.6472769975662231</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1.172217011451721</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>0.9694775938987732</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>0.7893911004066467</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>0.638117790222168</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1.177146673202515</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>0.972190797328949</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>0.790424644947052</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>0.6376662254333496</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1.153608798980713</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>0.9522920250892639</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>0.771531343460083</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>0.6191966533660889</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1.151379585266113</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>0.9467423558235168</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>0.762198269367218</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>0.6061913967132568</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1.141953945159912</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>0.9364635944366455</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>0.7555691003799438</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>0.6053023338317871</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1.137977361679077</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>0.9310534000396729</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>0.7457540035247803</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>0.5902262330055237</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1.12427544593811</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>0.9173669219017029</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>0.7291763424873352</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>0.5697237849235535</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1.150629758834839</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>0.9462630748748779</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>0.7621928453445435</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>0.6067447662353516</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1.168369054794312</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>0.9659782648086548</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>0.7884769439697266</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>0.6405829191207886</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1.152949213981628</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>0.9567965865135193</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>0.7890890836715698</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>0.6509096026420593</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>1.178746461868286</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>0.9745927453041077</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>0.7946650981903076</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>0.6437908411026001</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1.171224594116211</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>0.9659993052482605</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>0.7828727960586548</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>0.6286386251449585</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1.149843454360962</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>0.9452755451202393</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>0.7606778740882874</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>0.6045902967453003</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1.120997786521912</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>0.900515079498291</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>0.7132064700126648</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>0.5755906701087952</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1.188549280166626</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>0.974458634853363</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>0.798540472984314</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>0.6742435693740845</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1.13824725151062</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>0.9283235669136047</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>0.763612687587738</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>0.6513785123825073</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1.181489944458008</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>0.969492495059967</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>0.7858017683029175</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>0.6498823165893555</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1.168131828308105</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>0.9554097056388855</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>0.7783868312835693</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>0.6520644426345825</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1.192995309829712</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>0.9877021312713623</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>0.805550217628479</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>0.668084979057312</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1.160531997680664</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>0.9468709230422974</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>0.7570000886917114</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>0.6128489971160889</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1.197963356971741</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>0.9989750385284424</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>0.8281247615814209</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>0.7036176919937134</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1.111222624778748</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>0.9159258604049683</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>0.7585821151733398</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>0.6507119536399841</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1.194688320159912</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>0.9901107549667358</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>0.8080654144287109</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>0.6703318357467651</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1.168011426925659</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>0.9627603888511658</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>0.7883996963500977</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>0.6621920466423035</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1.165895700454712</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>0.9570631980895996</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>0.7653676271438599</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>0.6154700517654419</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1.161016941070557</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>0.9480972290039062</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>0.7584261894226074</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>0.6141406893730164</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1.152138590812683</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>0.9380912780761719</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>0.7591308951377869</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>0.6266521215438843</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1.137782335281372</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>0.9180297255516052</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>0.732765793800354</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>0.5962736010551453</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1.122677803039551</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>0.9020408391952515</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>0.7147732973098755</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>0.5771908164024353</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1.159298062324524</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>0.9453823566436768</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>0.7549525499343872</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>0.6101105213165283</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1.170776724815369</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>0.9552438259124756</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>0.7727468609809875</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>0.6402091979980469</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1.173456192016602</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>0.9573915004730225</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>0.7825458645820618</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>0.6599389314651489</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1.156317234039307</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>0.9542908072471619</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>0.7857276797294617</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>0.6659650802612305</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1.1717209815979</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>0.963468074798584</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>0.7834082841873169</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>0.6506584286689758</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1.159771919250488</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>0.9465970396995544</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>0.756367027759552</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>0.6113898754119873</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1.126598358154297</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>0.9203974008560181</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>0.7329922914505005</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>0.5766385793685913</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1.170444011688232</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>0.9705197811126709</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>0.8009797334671021</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>0.6611090302467346</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1.163547277450562</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>0.9646205902099609</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>0.7938068509101868</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>0.6519565582275391</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1.157150983810425</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>0.9509004354476929</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>0.7761549949645996</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>0.6364621520042419</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1.164806127548218</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>0.9587192535400391</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>0.7815598249435425</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>0.6384603381156921</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1.182318806648254</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>0.9768926501274109</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>0.7943292856216431</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>0.6460757851600647</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1.158499836921692</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>0.9493131637573242</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>0.764132022857666</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>0.6132092475891113</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1.190393805503845</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>0.9895086288452148</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>0.8065354228019714</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>0.6561545729637146</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>1.166534423828125</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>0.9690694212913513</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>0.7841951847076416</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>0.6294125318527222</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1.18595290184021</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>0.9807574152946472</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>0.7969228029251099</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>0.6469081044197083</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1.186197519302368</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>0.9819102883338928</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>0.795654296875</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>0.6417363882064819</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>1.1617431640625</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>0.9533846974372864</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>0.7693588733673096</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>0.6200990676879883</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1.161448001861572</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>0.9521570205688477</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>0.7655373215675354</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>0.6128582954406738</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1.148357629776001</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>0.9518547058105469</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>0.7798535227775574</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>0.6318455338478088</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1.12196946144104</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>0.9192968010902405</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>0.7434509992599487</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>0.5980873107910156</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1.12571918964386</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>0.919896125793457</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>0.7341168522834778</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>0.5796080231666565</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1.156778573989868</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>0.9474601745605469</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>0.7623044848442078</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>0.6114510893821716</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1.15993344783783</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>0.9530571103096008</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>0.7760082483291626</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>0.6330093741416931</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>1.177446246147156</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="n">
+        <v>0.9772832989692688</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="n">
+        <v>0.8056450486183167</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>0.662416398525238</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="n">
+        <v>1.184744477272034</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>0.9826881289482117</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>0.7968531847000122</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>0.6426563858985901</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>1.18193793296814</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>0.975604772567749</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>0.7890502214431763</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>0.6354693174362183</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1.159735918045044</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>0.9502977132797241</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>0.7636971473693848</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>0.6110897660255432</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1.080211877822876</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>0.8993680477142334</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>0.7145896553993225</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>0.5345726609230042</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1.142584562301636</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>0.971828281879425</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>0.8103387355804443</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>0.6602804660797119</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1.132052898406982</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>0.9624612927436829</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>0.8032283782958984</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>0.6562975645065308</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1.160637021064758</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>0.9788749814033508</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>0.8018420934677124</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>0.6344477534294128</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1.161649465560913</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>0.9784494638442993</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>0.7998342514038086</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>0.6312218904495239</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1.155125617980957</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>0.9755109548568726</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>0.7955626249313354</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>0.6220413446426392</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1.138484001159668</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>0.9537613987922668</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>0.7678283452987671</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>0.5883486270904541</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1.150818109512329</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>0.9749079942703247</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>0.7985718250274658</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>0.6284453868865967</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1.139251232147217</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>0.9596677422523499</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>0.7804663181304932</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>0.6089144945144653</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1.153191089630127</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>0.974245548248291</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>0.7943687438964844</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>0.6204825043678284</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1.147518038749695</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>0.9673330783843994</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>0.7859055995941162</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>0.6106933355331421</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1.145648717880249</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>0.9629672169685364</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>0.7792587280273438</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>0.6017578840255737</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1.1355140209198</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>0.9516828656196594</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>0.7660202980041504</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>0.5863368511199951</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1.138397693634033</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>0.9519215822219849</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>0.7720999717712402</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>0.603446364402771</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1.120903730392456</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>0.9326372146606445</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>0.7463676929473877</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>0.5691531300544739</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>1.085517644882202</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>0.9035435318946838</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="n">
+        <v>0.7182266712188721</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>0.5381757020950317</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>1.137588500976562</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>0.9526859521865845</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>0.7665692567825317</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>0.5869165658950806</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>1.161397218704224</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>0.9762699604034424</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>0.7954354882240295</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>0.6244900822639465</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1.149957656860352</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>0.9751123189926147</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>0.8096096515655518</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>0.6560008525848389</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1.146733283996582</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>0.9672107100486755</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>0.7869019508361816</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>0.6131664514541626</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1.145677447319031</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>0.9644263386726379</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>0.7816065549850464</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>0.6047961711883545</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1.134615421295166</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>0.9506087303161621</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>0.7647663354873657</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>0.5849123597145081</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1.112636089324951</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>0.9220137596130371</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>0.741122841835022</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>0.5807915925979614</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1.185948729515076</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>0.9924684166908264</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>0.8127341270446777</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>0.655947744846344</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1.145432591438293</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>0.9622998833656311</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>0.7917592525482178</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>0.6415280103683472</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1.172880172729492</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>0.9769240021705627</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>0.7937235832214355</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>0.6332769393920898</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1.16534686088562</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>0.9731926918029785</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>0.7937641143798828</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>0.6364695429801941</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1.168553590774536</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>0.9755386114120483</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>0.7953258752822876</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>0.6374074220657349</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1.144062042236328</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>0.9496829509735107</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>0.766247034072876</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>0.6042954921722412</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1.161683917045593</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>0.975185215473175</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>0.8022134304046631</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>0.6507871150970459</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1.130197525024414</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>0.9558698534965515</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>0.7932865619659424</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>0.6490238904953003</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1.168837547302246</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>0.9763139486312866</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>0.7966086864471436</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>0.6391456127166748</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1.166425228118896</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>0.9781868457794189</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>0.8025805950164795</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>0.6483901739120483</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1.146712779998779</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>0.9520983695983887</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>0.7686535120010376</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>0.6067445278167725</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1.144327402114868</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>0.9503529071807861</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>0.7673274278640747</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>0.6057433485984802</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1.130312323570251</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>0.9403737783432007</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>0.7590345144271851</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>0.5977028012275696</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="n">
+        <v>1.111231327056885</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="n">
+        <v>0.9191594123840332</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="n">
+        <v>0.7366052865982056</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="n">
+        <v>0.5747328996658325</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="n">
+        <v>1.112548589706421</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="n">
+        <v>0.9215404391288757</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="n">
+        <v>0.7402607798576355</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="n">
+        <v>0.5795816779136658</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="n">
+        <v>1.141929745674133</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="n">
+        <v>0.9474830627441406</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>0.7638800144195557</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>0.6017061471939087</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>1.165779590606689</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>0.9713350534439087</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>0.7891627550125122</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>0.6293151378631592</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1.176635026931763</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>0.9859733581542969</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>0.8083306550979614</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>0.652849555015564</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1.159474849700928</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>0.9751491546630859</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>0.8034975528717041</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>0.6525411009788513</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>1.165872573852539</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>0.9746901988983154</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>0.7957658767700195</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>0.6385965347290039</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>1.142174959182739</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>0.9481260776519775</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>0.7649268507957458</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>0.6031153202056885</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ANN_Graphene/visc_output2.xlsx
+++ b/ANN_Graphene/visc_output2.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2641"/>
+  <dimension ref="A1:A2729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A793"/>
@@ -13642,6 +13642,446 @@
         <v>0.6031153202056885</v>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>1.121839761734009</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>0.9015398025512695</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>0.720505952835083</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>0.5969743728637695</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1.205219864845276</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>0.9701204299926758</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>0.7876489162445068</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>0.6670607924461365</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1.149345397949219</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>0.9312161803245544</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>0.7675883769989014</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>0.6650446653366089</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1.197599411010742</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>0.9582628607749939</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>0.7682459950447083</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>0.6427305936813354</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>1.181763172149658</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>0.9523563385009766</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>0.7739505767822266</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>0.659464955329895</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>1.177605152130127</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>0.9474820494651794</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>0.7604976296424866</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>0.6357704401016235</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1.163743495941162</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>0.9370412826538086</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>0.7505829930305481</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>0.6241065263748169</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>1.169979691505432</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>0.9386734962463379</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>0.7533993721008301</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>0.6322906613349915</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>1.16005551815033</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>0.926477313041687</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>0.7428576350212097</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>0.6251375675201416</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>1.177088022232056</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>0.9480502605438232</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>0.7610805034637451</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>0.6357405781745911</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>1.177912712097168</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="n">
+        <v>0.9519668817520142</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="n">
+        <v>0.7703083157539368</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="n">
+        <v>0.6506173610687256</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="n">
+        <v>1.170845031738281</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="n">
+        <v>0.9414482116699219</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="n">
+        <v>0.7503389120101929</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="n">
+        <v>0.6187335252761841</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="n">
+        <v>1.161959767341614</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="n">
+        <v>0.9366682767868042</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>0.7505922317504883</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>0.6238659024238586</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1.160168290138245</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>0.933735728263855</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>0.7523230314254761</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>0.6266227960586548</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1.132549047470093</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>0.9088273644447327</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>0.7307065725326538</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>0.6119025945663452</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1.123017311096191</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>0.9025410413742065</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>0.7221909761428833</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>0.5996968150138855</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1.16253924369812</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>0.9357075691223145</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>0.748937726020813</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="n">
+        <v>0.6220759749412537</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="n">
+        <v>1.189372181892395</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="n">
+        <v>0.956839382648468</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="n">
+        <v>0.7735599875450134</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="n">
+        <v>0.6536276936531067</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="n">
+        <v>1.198656797409058</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="n">
+        <v>0.9712570905685425</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="n">
+        <v>0.7952950000762939</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="n">
+        <v>0.6794641017913818</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="n">
+        <v>1.17547869682312</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="n">
+        <v>0.9477514624595642</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="n">
+        <v>0.7662439346313477</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="n">
+        <v>0.6479260921478271</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="n">
+        <v>1.176086187362671</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="n">
+        <v>0.95107102394104</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="n">
+        <v>0.7684470415115356</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="n">
+        <v>0.6467135548591614</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="n">
+        <v>1.160659790039062</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="n">
+        <v>0.9352796077728271</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="n">
+        <v>0.7489314079284668</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="n">
+        <v>0.6218539476394653</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ANN_Graphene/visc_output2.xlsx
+++ b/ANN_Graphene/visc_output2.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ANN_Validation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ANN_Validation" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -72,16 +72,25 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -427,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2729"/>
+  <dimension ref="A1:A2905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A793"/>
@@ -436,7 +445,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>visc</t>
         </is>
@@ -14080,6 +14089,886 @@
     <row r="2729">
       <c r="A2729" t="n">
         <v>0.6218539476394653</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="n">
+        <v>1.139450550079346</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="n">
+        <v>0.8994107246398926</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="n">
+        <v>0.7034392356872559</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="n">
+        <v>0.5853826999664307</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="n">
+        <v>1.216998815536499</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="n">
+        <v>0.9810953140258789</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="n">
+        <v>0.808144211769104</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="n">
+        <v>0.7116783857345581</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="n">
+        <v>1.150496125221252</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="n">
+        <v>0.9111509323120117</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="n">
+        <v>0.7338275909423828</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="n">
+        <v>0.6333292722702026</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="n">
+        <v>1.148391962051392</v>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="n">
+        <v>0.9128549098968506</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="n">
+        <v>0.741468071937561</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="n">
+        <v>0.6463627815246582</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="n">
+        <v>1.16407036781311</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="n">
+        <v>0.9254966974258423</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="n">
+        <v>0.7481303811073303</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="n">
+        <v>0.6478315591812134</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="n">
+        <v>1.204296112060547</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="n">
+        <v>0.9693345427513123</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="n">
+        <v>0.8025064468383789</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="n">
+        <v>0.7105171680450439</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="n">
+        <v>1.15124773979187</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="n">
+        <v>0.9143247008323669</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="n">
+        <v>0.7378239631652832</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="n">
+        <v>0.6385489702224731</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="n">
+        <v>1.236964702606201</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="n">
+        <v>1.002166986465454</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="n">
+        <v>0.8387252688407898</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="n">
+        <v>0.7483422756195068</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="n">
+        <v>1.119232416152954</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="n">
+        <v>0.8808273077011108</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="n">
+        <v>0.7132664322853088</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="n">
+        <v>0.6193428039550781</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="n">
+        <v>1.214450836181641</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="n">
+        <v>0.9797395467758179</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="n">
+        <v>0.8135524988174438</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="n">
+        <v>0.7220104932785034</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="n">
+        <v>1.206362724304199</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="n">
+        <v>0.9679354429244995</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="n">
+        <v>0.7956807613372803</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="n">
+        <v>0.6992266774177551</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="n">
+        <v>1.140673398971558</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="n">
+        <v>0.9063191413879395</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="n">
+        <v>0.7375166416168213</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="n">
+        <v>0.6445432901382446</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="n">
+        <v>1.158495903015137</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="n">
+        <v>0.9216140508651733</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="n">
+        <v>0.7457053661346436</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="n">
+        <v>0.6469300985336304</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="n">
+        <v>1.225443840026855</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="n">
+        <v>0.9839335680007935</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="n">
+        <v>0.7697488069534302</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="n">
+        <v>0.6302332878112793</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="n">
+        <v>1.14353346824646</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="n">
+        <v>0.9033137559890747</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="n">
+        <v>0.6990143060684204</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="n">
+        <v>0.5712824463844299</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="n">
+        <v>1.137674570083618</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="n">
+        <v>0.8976384401321411</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="n">
+        <v>0.7008829116821289</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="n">
+        <v>0.5819367170333862</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="n">
+        <v>1.147573947906494</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="n">
+        <v>0.9107068181037903</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="n">
+        <v>0.7340460419654846</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>0.6346451044082642</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>1.160930633544922</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>0.9231778383255005</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>0.7444387078285217</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>0.6430739164352417</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>1.223850965499878</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>0.9854897260665894</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>0.8046723008155823</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>0.701234757900238</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1.192406892776489</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>0.9536684155464172</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>0.7828097939491272</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>0.6870940923690796</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>1.202368974685669</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>0.9644651412963867</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>0.7909241318702698</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>0.6937499642372131</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>1.154789805412292</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>0.9179608821868896</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>0.7418932318687439</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>0.6429961919784546</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="n">
+        <v>1.178161144256592</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="n">
+        <v>0.9245211482048035</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="n">
+        <v>0.7201468348503113</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="n">
+        <v>0.5912890434265137</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="n">
+        <v>1.185710668563843</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="n">
+        <v>0.9598935842514038</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="n">
+        <v>0.7920081615447998</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="n">
+        <v>0.6980592012405396</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="n">
+        <v>1.150296330451965</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="n">
+        <v>0.9163531064987183</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="n">
+        <v>0.7334942817687988</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="n">
+        <v>0.6264961957931519</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="n">
+        <v>1.154864072799683</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="n">
+        <v>0.9196141958236694</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="n">
+        <v>0.7534421682357788</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="n">
+        <v>0.6614140272140503</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="n">
+        <v>1.162350654602051</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="n">
+        <v>0.9239626526832581</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="n">
+        <v>0.7491394281387329</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="n">
+        <v>0.6506783962249756</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="n">
+        <v>1.202990293502808</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="n">
+        <v>0.9631751179695129</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="n">
+        <v>0.796479344367981</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="n">
+        <v>0.7011842727661133</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="n">
+        <v>1.167205214500427</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="n">
+        <v>0.9194816946983337</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="n">
+        <v>0.7394776344299316</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="n">
+        <v>0.632968008518219</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="n">
+        <v>1.208036780357361</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="n">
+        <v>0.9718140959739685</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="n">
+        <v>0.8100655078887939</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="n">
+        <v>0.7197914123535156</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="n">
+        <v>1.128082752227783</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="n">
+        <v>0.8862027525901794</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="n">
+        <v>0.7171522378921509</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="n">
+        <v>0.6241015195846558</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="n">
+        <v>1.212812185287476</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="n">
+        <v>0.9729368090629578</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="n">
+        <v>0.8061535358428955</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="n">
+        <v>0.7101593017578125</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="n">
+        <v>1.205370426177979</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="n">
+        <v>0.9613232612609863</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="n">
+        <v>0.7871743440628052</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="n">
+        <v>0.6870856881141663</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="n">
+        <v>1.164310932159424</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="n">
+        <v>0.9219664335250854</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="n">
+        <v>0.751679539680481</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="n">
+        <v>0.6516969203948975</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>1.174314260482788</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>0.9268970489501953</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>0.7472257614135742</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>0.6403550505638123</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>1.150240659713745</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="n">
+        <v>0.9393311738967896</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>0.7521535158157349</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>0.6344224810600281</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="n">
+        <v>1.167119741439819</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="n">
+        <v>0.9264422059059143</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="n">
+        <v>0.7260115742683411</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="n">
+        <v>0.6014378666877747</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="n">
+        <v>1.176008939743042</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>0.922454833984375</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="n">
+        <v>0.7176651358604431</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="n">
+        <v>0.5888490676879883</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="n">
+        <v>1.163994312286377</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="n">
+        <v>0.9161232709884644</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="n">
+        <v>0.7359125018119812</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="n">
+        <v>0.6291669607162476</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="n">
+        <v>1.167199850082397</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="n">
+        <v>0.9273662567138672</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="n">
+        <v>0.7507402896881104</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="n">
+        <v>0.6502763032913208</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="n">
+        <v>1.207855224609375</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="n">
+        <v>0.9783954620361328</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="n">
+        <v>0.7990981340408325</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="n">
+        <v>0.6945258378982544</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="n">
+        <v>1.190096139907837</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="n">
+        <v>0.9471297264099121</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="n">
+        <v>0.7750306129455566</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="n">
+        <v>0.6776018738746643</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="n">
+        <v>1.206702470779419</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="n">
+        <v>0.9614328742027283</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="n">
+        <v>0.785181999206543</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="n">
+        <v>0.6824625730514526</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="n">
+        <v>1.171021103858948</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="n">
+        <v>0.9234797954559326</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="n">
+        <v>0.7436188459396362</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="n">
+        <v>0.6365215182304382</v>
       </c>
     </row>
   </sheetData>
